--- a/Code/Results/Cases/Case_3_84/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_84/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.38700589990841</v>
+        <v>12.44920852904582</v>
       </c>
       <c r="C2">
-        <v>6.765713437532829</v>
+        <v>8.837927998651603</v>
       </c>
       <c r="D2">
-        <v>6.693758852948344</v>
+        <v>9.6366667936373</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.68843929002441</v>
+        <v>32.05724342210324</v>
       </c>
       <c r="G2">
-        <v>22.15044563677544</v>
+        <v>32.70405752597234</v>
       </c>
       <c r="H2">
-        <v>9.131884308250134</v>
+        <v>15.41561275117694</v>
       </c>
       <c r="I2">
-        <v>14.77309875879569</v>
+        <v>24.36903604213749</v>
       </c>
       <c r="J2">
-        <v>6.006082158756445</v>
+        <v>10.44565769584516</v>
       </c>
       <c r="K2">
-        <v>10.89891075007853</v>
+        <v>9.307327154608577</v>
       </c>
       <c r="L2">
-        <v>7.433438171309917</v>
+        <v>11.58239160488619</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.61492662734996</v>
+        <v>19.32661972788484</v>
       </c>
       <c r="O2">
-        <v>14.7725122758969</v>
+        <v>23.96315434154425</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.49186751014599</v>
+        <v>12.21325946675635</v>
       </c>
       <c r="C3">
-        <v>6.715572155313611</v>
+        <v>8.827412745671372</v>
       </c>
       <c r="D3">
-        <v>6.487324446214823</v>
+        <v>9.61838139383401</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.5706926975821</v>
+        <v>32.1305562419502</v>
       </c>
       <c r="G3">
-        <v>22.02469663583586</v>
+        <v>32.79762125717165</v>
       </c>
       <c r="H3">
-        <v>9.197462126931637</v>
+        <v>15.45856872640799</v>
       </c>
       <c r="I3">
-        <v>14.91076056887</v>
+        <v>24.4521700932462</v>
       </c>
       <c r="J3">
-        <v>6.042760060542105</v>
+        <v>10.46641076717269</v>
       </c>
       <c r="K3">
-        <v>10.28368413573172</v>
+        <v>9.135829970393692</v>
       </c>
       <c r="L3">
-        <v>7.271449596009028</v>
+        <v>11.57677813002858</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.77140139585377</v>
+        <v>19.37686786354418</v>
       </c>
       <c r="O3">
-        <v>14.82929609711026</v>
+        <v>24.03641297067031</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.94040502810888</v>
+        <v>12.06776280606209</v>
       </c>
       <c r="C4">
-        <v>6.68501346791167</v>
+        <v>8.8211198334429</v>
       </c>
       <c r="D4">
-        <v>6.359670317587904</v>
+        <v>9.6085594332074</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.51239705735536</v>
+        <v>32.18161577542555</v>
       </c>
       <c r="G4">
-        <v>21.96739555130796</v>
+        <v>32.86286376587093</v>
       </c>
       <c r="H4">
-        <v>9.241981216555176</v>
+        <v>15.48687989552123</v>
       </c>
       <c r="I4">
-        <v>15.00367935706605</v>
+        <v>24.50688009120664</v>
       </c>
       <c r="J4">
-        <v>6.066918607044052</v>
+        <v>10.48000882624959</v>
       </c>
       <c r="K4">
-        <v>9.885836167239699</v>
+        <v>9.029937207802414</v>
       </c>
       <c r="L4">
-        <v>7.172857962550781</v>
+        <v>11.57480983969698</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.87014018137007</v>
+        <v>19.40925856471038</v>
       </c>
       <c r="O4">
-        <v>14.87376877461622</v>
+        <v>24.085349776001</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.71370669541401</v>
+        <v>12.00839281198697</v>
       </c>
       <c r="C5">
-        <v>6.672622015678459</v>
+        <v>8.818597299771492</v>
       </c>
       <c r="D5">
-        <v>6.307503610440341</v>
+        <v>9.604913526978283</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.49209541476244</v>
+        <v>32.20394201747429</v>
       </c>
       <c r="G5">
-        <v>21.94891862214191</v>
+        <v>32.89140625383465</v>
       </c>
       <c r="H5">
-        <v>9.261166755789258</v>
+        <v>15.49890424601764</v>
       </c>
       <c r="I5">
-        <v>15.04359366715481</v>
+        <v>24.5300970257092</v>
       </c>
       <c r="J5">
-        <v>6.077171672788039</v>
+        <v>10.48576575242839</v>
       </c>
       <c r="K5">
-        <v>9.718714511633902</v>
+        <v>8.986689964028047</v>
       </c>
       <c r="L5">
-        <v>7.132950568185274</v>
+        <v>11.57438124951328</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.91105560868392</v>
+        <v>19.42284582793528</v>
       </c>
       <c r="O5">
-        <v>14.89423061762695</v>
+        <v>24.10628638787159</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.67565417934881</v>
+        <v>11.99853200824877</v>
       </c>
       <c r="C6">
-        <v>6.670568254923606</v>
+        <v>8.81818098658243</v>
       </c>
       <c r="D6">
-        <v>6.298834955104018</v>
+        <v>9.604329755996469</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.48893090102333</v>
+        <v>32.20774098659368</v>
       </c>
       <c r="G6">
-        <v>21.94614080747107</v>
+        <v>32.89626369776209</v>
       </c>
       <c r="H6">
-        <v>9.26441479409986</v>
+        <v>15.50093032759489</v>
       </c>
       <c r="I6">
-        <v>15.0503434317718</v>
+        <v>24.53400789102527</v>
       </c>
       <c r="J6">
-        <v>6.078898741284294</v>
+        <v>10.48673472135047</v>
       </c>
       <c r="K6">
-        <v>9.690664394658501</v>
+        <v>8.979504650439754</v>
       </c>
       <c r="L6">
-        <v>7.126341746398547</v>
+        <v>11.57433268951672</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.91789082964234</v>
+        <v>19.42512543399195</v>
       </c>
       <c r="O6">
-        <v>14.89776732400948</v>
+        <v>24.10982295259306</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.93737521228549</v>
+        <v>12.06696233713975</v>
       </c>
       <c r="C7">
-        <v>6.684846098245928</v>
+        <v>8.821085643096357</v>
       </c>
       <c r="D7">
-        <v>6.358967263044038</v>
+        <v>9.608508815186557</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.51210936862201</v>
+        <v>32.18191072580117</v>
       </c>
       <c r="G7">
-        <v>21.96712681490988</v>
+        <v>32.86324078737648</v>
       </c>
       <c r="H7">
-        <v>9.242235767315018</v>
+        <v>15.48704008632662</v>
       </c>
       <c r="I7">
-        <v>15.00420943748807</v>
+        <v>24.5071894684333</v>
       </c>
       <c r="J7">
-        <v>6.067055235119579</v>
+        <v>10.48008559256843</v>
       </c>
       <c r="K7">
-        <v>9.883602443879779</v>
+        <v>9.02935427312711</v>
       </c>
       <c r="L7">
-        <v>7.172318598811119</v>
+        <v>11.57480254506551</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.87068922175849</v>
+        <v>19.40944023580197</v>
       </c>
       <c r="O7">
-        <v>14.87403536104881</v>
+        <v>24.08562810822745</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.08528846094065</v>
+        <v>12.36802864986003</v>
       </c>
       <c r="C8">
-        <v>6.748379777004272</v>
+        <v>8.834268866714007</v>
       </c>
       <c r="D8">
-        <v>6.622814252222573</v>
+        <v>9.630072318331855</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.64489644689307</v>
+        <v>32.08126644193985</v>
       </c>
       <c r="G8">
-        <v>22.10287902550422</v>
+        <v>32.73469821090976</v>
       </c>
       <c r="H8">
-        <v>9.153596569693168</v>
+        <v>15.43002244408705</v>
       </c>
       <c r="I8">
-        <v>14.81878439182852</v>
+        <v>24.39694020953759</v>
       </c>
       <c r="J8">
-        <v>6.018386428264392</v>
+        <v>10.45263605507125</v>
       </c>
       <c r="K8">
-        <v>10.69098160576129</v>
+        <v>9.248349944947682</v>
       </c>
       <c r="L8">
-        <v>7.377434130285482</v>
+        <v>11.58015032180174</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.66833199415409</v>
+        <v>19.3436266538899</v>
       </c>
       <c r="O8">
-        <v>14.79005077439488</v>
+        <v>23.98759277922796</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.13497410489894</v>
+        <v>12.95016453644861</v>
       </c>
       <c r="C9">
-        <v>6.874606843425155</v>
+        <v>8.861385332062612</v>
       </c>
       <c r="D9">
-        <v>7.129794201517132</v>
+        <v>9.683357493789266</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.01900722149736</v>
+        <v>31.9319090433305</v>
       </c>
       <c r="G9">
-        <v>22.53236222289397</v>
+        <v>32.54464473697322</v>
       </c>
       <c r="H9">
-        <v>9.014758557635057</v>
+        <v>15.33355052841044</v>
       </c>
       <c r="I9">
-        <v>14.52469103294193</v>
+        <v>24.20980279974063</v>
       </c>
       <c r="J9">
-        <v>5.936120089314807</v>
+        <v>10.40557555934163</v>
       </c>
       <c r="K9">
-        <v>12.11299491097671</v>
+        <v>9.670796675446077</v>
       </c>
       <c r="L9">
-        <v>7.784394476949771</v>
+        <v>11.60228654246161</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.29221537133456</v>
+        <v>19.22672421022177</v>
       </c>
       <c r="O9">
-        <v>14.70507448691492</v>
+        <v>23.8267422323383</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.48246379110955</v>
+        <v>13.36857497139917</v>
       </c>
       <c r="C10">
-        <v>6.968122609975895</v>
+        <v>8.882035034597202</v>
       </c>
       <c r="D10">
-        <v>7.491962295220568</v>
+        <v>9.728994814195191</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.36627707582171</v>
+        <v>31.85148676167984</v>
       </c>
       <c r="G10">
-        <v>22.95373985585864</v>
+        <v>32.44304174845323</v>
       </c>
       <c r="H10">
-        <v>8.935865189797831</v>
+        <v>15.27199368476353</v>
       </c>
       <c r="I10">
-        <v>14.35527511435098</v>
+        <v>24.08999890392342</v>
       </c>
       <c r="J10">
-        <v>5.883967255391689</v>
+        <v>10.37509754952846</v>
       </c>
       <c r="K10">
-        <v>13.0578946098412</v>
+        <v>9.973943952575002</v>
       </c>
       <c r="L10">
-        <v>8.083484474254282</v>
+        <v>11.62553611898163</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.02790079177642</v>
+        <v>19.14818158082594</v>
       </c>
       <c r="O10">
-        <v>14.69606860884489</v>
+        <v>23.7277176380599</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.06161187913892</v>
+        <v>13.55606572717175</v>
       </c>
       <c r="C11">
-        <v>7.010789513969769</v>
+        <v>8.891577616757683</v>
       </c>
       <c r="D11">
-        <v>7.653768812680781</v>
+        <v>9.751114484667587</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.54049526524593</v>
+        <v>31.82127017667716</v>
       </c>
       <c r="G11">
-        <v>23.16948190169682</v>
+        <v>32.40511716108526</v>
       </c>
       <c r="H11">
-        <v>8.905407567985838</v>
+        <v>15.24600752211296</v>
       </c>
       <c r="I11">
-        <v>14.28933428364811</v>
+        <v>24.03933119697284</v>
       </c>
       <c r="J11">
-        <v>5.862102805187834</v>
+        <v>10.36211597265929</v>
       </c>
       <c r="K11">
-        <v>13.46593846484349</v>
+        <v>10.10970100030499</v>
       </c>
       <c r="L11">
-        <v>8.219025181914287</v>
+        <v>11.63760243775146</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.91013326700712</v>
+        <v>19.11403150448939</v>
       </c>
       <c r="O11">
-        <v>14.70461742976797</v>
+        <v>23.68682975272323</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.27609867011611</v>
+        <v>13.62658912414226</v>
       </c>
       <c r="C12">
-        <v>7.026960835998583</v>
+        <v>8.895211710362943</v>
       </c>
       <c r="D12">
-        <v>7.714565845273326</v>
+        <v>9.759681376696825</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.60883456175926</v>
+        <v>31.81074360873189</v>
       </c>
       <c r="G12">
-        <v>23.25470450209522</v>
+        <v>32.3919514715435</v>
       </c>
       <c r="H12">
-        <v>8.894691561903018</v>
+        <v>15.236456725384</v>
       </c>
       <c r="I12">
-        <v>14.26605274593103</v>
+        <v>24.02069527008172</v>
       </c>
       <c r="J12">
-        <v>5.85409638271539</v>
+        <v>10.35732670354262</v>
       </c>
       <c r="K12">
-        <v>13.6173173819378</v>
+        <v>10.16075458003227</v>
       </c>
       <c r="L12">
-        <v>8.270234976802177</v>
+        <v>11.64238330276036</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.86588227599541</v>
+        <v>19.10132584155258</v>
       </c>
       <c r="O12">
-        <v>14.70975896711756</v>
+        <v>23.67194480859526</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.2301189936818</v>
+        <v>13.61142279713853</v>
       </c>
       <c r="C13">
-        <v>7.023477475565626</v>
+        <v>8.894428144748831</v>
       </c>
       <c r="D13">
-        <v>7.701494032355349</v>
+        <v>9.757827942113122</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.59401078821739</v>
+        <v>31.81296996447889</v>
       </c>
       <c r="G13">
-        <v>23.23619255486076</v>
+        <v>32.39473372878951</v>
       </c>
       <c r="H13">
-        <v>8.896962479583239</v>
+        <v>15.23850078588227</v>
       </c>
       <c r="I13">
-        <v>14.27099027073161</v>
+        <v>24.02468435425112</v>
       </c>
       <c r="J13">
-        <v>5.855808465205463</v>
+        <v>10.35835253541798</v>
       </c>
       <c r="K13">
-        <v>13.58485481069465</v>
+        <v>10.14977575762101</v>
       </c>
       <c r="L13">
-        <v>8.259211851585764</v>
+        <v>11.6413442900662</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.87539733874863</v>
+        <v>19.10405218565642</v>
       </c>
       <c r="O13">
-        <v>14.70856558717407</v>
+        <v>23.675123927703</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.07935428062233</v>
+        <v>13.56187761925795</v>
       </c>
       <c r="C14">
-        <v>7.01211967313899</v>
+        <v>8.89187618962289</v>
       </c>
       <c r="D14">
-        <v>7.658780429046179</v>
+        <v>9.751815495149044</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.54606999430296</v>
+        <v>31.82038579605581</v>
       </c>
       <c r="G14">
-        <v>23.17642221823212</v>
+        <v>32.40401003787161</v>
       </c>
       <c r="H14">
-        <v>8.904509353227894</v>
+        <v>15.24521597031204</v>
       </c>
       <c r="I14">
-        <v>14.28738452699523</v>
+        <v>24.03778696936991</v>
       </c>
       <c r="J14">
-        <v>5.861438603356284</v>
+        <v>10.36171942221799</v>
       </c>
       <c r="K14">
-        <v>13.47845540145248</v>
+        <v>10.11390857161848</v>
       </c>
       <c r="L14">
-        <v>8.223240808290013</v>
+        <v>11.63799153702741</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.90648585593808</v>
+        <v>19.11298167296911</v>
       </c>
       <c r="O14">
-        <v>14.70500177154203</v>
+        <v>23.68559316439503</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.98637953512449</v>
+        <v>13.53146597799224</v>
       </c>
       <c r="C15">
-        <v>7.005164442190194</v>
+        <v>8.890315689716424</v>
       </c>
       <c r="D15">
-        <v>7.632553737959899</v>
+        <v>9.748157381157489</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.5170138914972</v>
+        <v>31.82504746914955</v>
       </c>
       <c r="G15">
-        <v>23.14027208026455</v>
+        <v>32.40984781047356</v>
       </c>
       <c r="H15">
-        <v>8.909239627557048</v>
+        <v>15.24936691869997</v>
       </c>
       <c r="I15">
-        <v>14.29764912604089</v>
+        <v>24.04588442987493</v>
       </c>
       <c r="J15">
-        <v>5.864922975484785</v>
+        <v>10.36379820908291</v>
       </c>
       <c r="K15">
-        <v>13.41287395080202</v>
+        <v>10.09189137401053</v>
       </c>
       <c r="L15">
-        <v>8.201191132222089</v>
+        <v>11.63596535619066</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.92557309495617</v>
+        <v>19.11848067766482</v>
       </c>
       <c r="O15">
-        <v>14.70306936977049</v>
+        <v>23.6920838151771</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.44393780801307</v>
+        <v>13.356259007269</v>
       </c>
       <c r="C16">
-        <v>6.965336431570263</v>
+        <v>8.881414325355214</v>
       </c>
       <c r="D16">
-        <v>7.481324001726344</v>
+        <v>9.727576185579851</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.35522114845448</v>
+        <v>31.85358963987031</v>
       </c>
       <c r="G16">
-        <v>22.94013065148294</v>
+        <v>32.44568736971372</v>
       </c>
       <c r="H16">
-        <v>8.937968050143651</v>
+        <v>15.27373248577894</v>
       </c>
       <c r="I16">
-        <v>14.35981589674897</v>
+        <v>24.09338724725739</v>
       </c>
       <c r="J16">
-        <v>5.885434056860738</v>
+        <v>10.37596366005574</v>
       </c>
       <c r="K16">
-        <v>13.03078889668993</v>
+        <v>9.965024728076155</v>
       </c>
       <c r="L16">
-        <v>8.074612489344185</v>
+        <v>11.62477731595874</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.03564601748036</v>
+        <v>19.15044507386783</v>
       </c>
       <c r="O16">
-        <v>14.69577172960211</v>
+        <v>23.73047347727104</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.10253122242872</v>
+        <v>13.24799805282733</v>
       </c>
       <c r="C17">
-        <v>6.940932734532376</v>
+        <v>8.875991140809555</v>
       </c>
       <c r="D17">
-        <v>7.38775608973233</v>
+        <v>9.715295039198423</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.26015084439064</v>
+        <v>31.87273046810693</v>
       </c>
       <c r="G17">
-        <v>22.82356304350558</v>
+        <v>32.46980042341168</v>
       </c>
       <c r="H17">
-        <v>8.957008613328142</v>
+        <v>15.28919615818356</v>
       </c>
       <c r="I17">
-        <v>14.40086490282293</v>
+        <v>24.123509957229</v>
       </c>
       <c r="J17">
-        <v>5.898497295116647</v>
+        <v>10.38365264398784</v>
       </c>
       <c r="K17">
-        <v>12.79080469245263</v>
+        <v>9.886612880310723</v>
       </c>
       <c r="L17">
-        <v>7.996797184160709</v>
+        <v>11.6182935973873</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.10379770865703</v>
+        <v>19.17045807743787</v>
       </c>
       <c r="O17">
-        <v>14.69459485366693</v>
+        <v>23.75508975645037</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.90297630199049</v>
+        <v>13.18546502292249</v>
       </c>
       <c r="C18">
-        <v>6.926908461472143</v>
+        <v>8.87288594046041</v>
       </c>
       <c r="D18">
-        <v>7.333663770876067</v>
+        <v>9.708359465882655</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.20699640077114</v>
+        <v>31.88433915542693</v>
       </c>
       <c r="G18">
-        <v>22.75877749565329</v>
+        <v>32.48445025712824</v>
       </c>
       <c r="H18">
-        <v>8.968469171724855</v>
+        <v>15.29828026302157</v>
       </c>
       <c r="I18">
-        <v>14.42551697950401</v>
+        <v>24.14119640826281</v>
       </c>
       <c r="J18">
-        <v>5.906185646855812</v>
+        <v>10.38815828246412</v>
       </c>
       <c r="K18">
-        <v>12.65072043259377</v>
+        <v>9.841313044969784</v>
       </c>
       <c r="L18">
-        <v>7.951993563402886</v>
+        <v>11.61470474436433</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.14322991688601</v>
+        <v>19.18211773643435</v>
       </c>
       <c r="O18">
-        <v>14.69510308026972</v>
+        <v>23.76963982461823</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.83486184615741</v>
+        <v>13.16424911134907</v>
       </c>
       <c r="C19">
-        <v>6.922162280388888</v>
+        <v>8.871837016796649</v>
       </c>
       <c r="D19">
-        <v>7.315303574555553</v>
+        <v>9.706033363307716</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.18926052138963</v>
+        <v>31.88837259575468</v>
       </c>
       <c r="G19">
-        <v>22.73722831755171</v>
+        <v>32.4895444255808</v>
       </c>
       <c r="H19">
-        <v>8.972435841776129</v>
+        <v>15.30138859553515</v>
       </c>
       <c r="I19">
-        <v>14.43404004348625</v>
+        <v>24.14724668628137</v>
       </c>
       <c r="J19">
-        <v>5.908818632207822</v>
+        <v>10.38969810572075</v>
       </c>
       <c r="K19">
-        <v>12.60293815880625</v>
+        <v>9.825942494999246</v>
       </c>
       <c r="L19">
-        <v>7.936817210614562</v>
+        <v>11.61351381421136</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.15662133962583</v>
+        <v>19.18609106450692</v>
       </c>
       <c r="O19">
-        <v>14.69547608612547</v>
+        <v>23.77463344541635</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.13920407158283</v>
+        <v>13.25955044931541</v>
       </c>
       <c r="C20">
-        <v>6.943529327227735</v>
+        <v>8.876566998086144</v>
       </c>
       <c r="D20">
-        <v>7.397745362591316</v>
+        <v>9.716589152100347</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.27011290858315</v>
+        <v>31.87063085816904</v>
       </c>
       <c r="G20">
-        <v>22.83573732978628</v>
+        <v>32.46715273305416</v>
       </c>
       <c r="H20">
-        <v>8.95492878085811</v>
+        <v>15.2875303818387</v>
       </c>
       <c r="I20">
-        <v>14.39638671775002</v>
+        <v>24.12026601704416</v>
       </c>
       <c r="J20">
-        <v>5.897088567978366</v>
+        <v>10.38282553697045</v>
       </c>
       <c r="K20">
-        <v>12.81656381292853</v>
+        <v>9.89498093582214</v>
       </c>
       <c r="L20">
-        <v>8.005085865618179</v>
+        <v>11.61896928704551</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.09651878751207</v>
+        <v>19.16831227466627</v>
       </c>
       <c r="O20">
-        <v>14.69459685465067</v>
+        <v>23.75242879664798</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.12376812492799</v>
+        <v>13.57644364499101</v>
       </c>
       <c r="C21">
-        <v>7.015455376650817</v>
+        <v>8.892625210824846</v>
       </c>
       <c r="D21">
-        <v>7.671339741568844</v>
+        <v>9.753576361382715</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.56008692207408</v>
+        <v>31.81818273264718</v>
       </c>
       <c r="G21">
-        <v>23.19388205867912</v>
+        <v>32.40125289548636</v>
       </c>
       <c r="H21">
-        <v>8.902270162760379</v>
+        <v>15.24323570100144</v>
       </c>
       <c r="I21">
-        <v>14.28252257324056</v>
+        <v>24.03392346540814</v>
       </c>
       <c r="J21">
-        <v>5.859777434377361</v>
+        <v>10.3607270540269</v>
       </c>
       <c r="K21">
-        <v>13.50979266752192</v>
+        <v>10.12445361324591</v>
       </c>
       <c r="L21">
-        <v>8.233809858631897</v>
+        <v>11.63897060056077</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.89734512361946</v>
+        <v>19.11035273323456</v>
       </c>
       <c r="O21">
-        <v>14.70599618584523</v>
+        <v>23.68250185236046</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.73913897162549</v>
+        <v>13.78075346719264</v>
       </c>
       <c r="C22">
-        <v>7.062544899953202</v>
+        <v>8.903239393971782</v>
       </c>
       <c r="D22">
-        <v>7.847357508264455</v>
+        <v>9.778858551757461</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.7634064321822</v>
+        <v>31.78924266986216</v>
       </c>
       <c r="G22">
-        <v>23.44852332946279</v>
+        <v>32.36515292329985</v>
       </c>
       <c r="H22">
-        <v>8.872638737963632</v>
+        <v>15.21597441197933</v>
       </c>
       <c r="I22">
-        <v>14.21799384495903</v>
+        <v>23.98070423571667</v>
       </c>
       <c r="J22">
-        <v>5.836987606467138</v>
+        <v>10.34702199264404</v>
       </c>
       <c r="K22">
-        <v>13.94456665694953</v>
+        <v>10.27234049075703</v>
       </c>
       <c r="L22">
-        <v>8.38259772809069</v>
+        <v>11.65327472451973</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.7691797723221</v>
+        <v>19.07379106297008</v>
       </c>
       <c r="O22">
-        <v>14.72458552937151</v>
+        <v>23.64028869247813</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.41326132669092</v>
+        <v>13.67198631319161</v>
       </c>
       <c r="C23">
-        <v>7.037406068147514</v>
+        <v>8.897563794088038</v>
       </c>
       <c r="D23">
-        <v>7.75368461342891</v>
+        <v>9.765265136114259</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.65361921975491</v>
+        <v>31.80420015281114</v>
       </c>
       <c r="G23">
-        <v>23.31071529509952</v>
+        <v>32.38378168619806</v>
       </c>
       <c r="H23">
-        <v>8.888003300383335</v>
+        <v>15.23036995166557</v>
       </c>
       <c r="I23">
-        <v>14.25149881832769</v>
+        <v>24.0088146168984</v>
       </c>
       <c r="J23">
-        <v>5.849003033079684</v>
+        <v>10.35426928668922</v>
       </c>
       <c r="K23">
-        <v>13.71419313465141</v>
+        <v>10.19361595863742</v>
       </c>
       <c r="L23">
-        <v>8.303263671855238</v>
+        <v>11.64552851664824</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.83740389195883</v>
+        <v>19.09318438308006</v>
       </c>
       <c r="O23">
-        <v>14.71361651977556</v>
+        <v>23.66249937326775</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.12263448272996</v>
+        <v>13.25432851645333</v>
       </c>
       <c r="C24">
-        <v>6.942355389504757</v>
+        <v>8.876306613513254</v>
       </c>
       <c r="D24">
-        <v>7.393230139262238</v>
+        <v>9.716003693880539</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.26560438106742</v>
+        <v>31.87157820928303</v>
       </c>
       <c r="G24">
-        <v>22.8302263919517</v>
+        <v>32.46834730290223</v>
       </c>
       <c r="H24">
-        <v>8.95586747523153</v>
+        <v>15.28828287552137</v>
       </c>
       <c r="I24">
-        <v>14.39840803371958</v>
+        <v>24.12173145453325</v>
       </c>
       <c r="J24">
-        <v>5.897724899132793</v>
+        <v>10.38319920682493</v>
       </c>
       <c r="K24">
-        <v>12.80492469926258</v>
+        <v>9.891198419082365</v>
       </c>
       <c r="L24">
-        <v>8.001338756827264</v>
+        <v>11.61866337545106</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.09980880551232</v>
+        <v>19.16928191259206</v>
       </c>
       <c r="O24">
-        <v>14.69459226603805</v>
+        <v>23.75363057736143</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.60847934468769</v>
+        <v>12.79401567073515</v>
       </c>
       <c r="C25">
-        <v>6.840306936718332</v>
+        <v>8.853918704281485</v>
       </c>
       <c r="D25">
-        <v>6.99419017790304</v>
+        <v>9.667786334014993</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.90527961555151</v>
+        <v>31.96716925100297</v>
       </c>
       <c r="G25">
-        <v>22.39799356142721</v>
+        <v>32.5893953717995</v>
       </c>
       <c r="H25">
-        <v>9.048394160687151</v>
+        <v>15.35800968955083</v>
       </c>
       <c r="I25">
-        <v>14.59638208439781</v>
+        <v>24.25732044830302</v>
       </c>
       <c r="J25">
-        <v>5.956939532845111</v>
+        <v>10.41758508272529</v>
       </c>
       <c r="K25">
-        <v>11.74576539030094</v>
+        <v>9.557576351679632</v>
       </c>
       <c r="L25">
-        <v>7.674090356348824</v>
+        <v>11.5950623317521</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.39181003610383</v>
+        <v>19.25705472269057</v>
       </c>
       <c r="O25">
-        <v>14.71903243126292</v>
+        <v>23.86689400385482</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_84/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_84/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.44920852904582</v>
+        <v>13.38700589990841</v>
       </c>
       <c r="C2">
-        <v>8.837927998651603</v>
+        <v>6.765713437533054</v>
       </c>
       <c r="D2">
-        <v>9.6366667936373</v>
+        <v>6.693758852948475</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>32.05724342210324</v>
+        <v>20.68843929002452</v>
       </c>
       <c r="G2">
-        <v>32.70405752597234</v>
+        <v>22.15044563677555</v>
       </c>
       <c r="H2">
-        <v>15.41561275117694</v>
+        <v>9.131884308250141</v>
       </c>
       <c r="I2">
-        <v>24.36903604213749</v>
+        <v>14.77309875879579</v>
       </c>
       <c r="J2">
-        <v>10.44565769584516</v>
+        <v>6.006082158756447</v>
       </c>
       <c r="K2">
-        <v>9.307327154608577</v>
+        <v>10.89891075007849</v>
       </c>
       <c r="L2">
-        <v>11.58239160488619</v>
+        <v>7.433438171309962</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.32661972788484</v>
+        <v>12.61492662734996</v>
       </c>
       <c r="O2">
-        <v>23.96315434154425</v>
+        <v>14.77251227589693</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.21325946675635</v>
+        <v>12.49186751014603</v>
       </c>
       <c r="C3">
-        <v>8.827412745671372</v>
+        <v>6.715572155313319</v>
       </c>
       <c r="D3">
-        <v>9.61838139383401</v>
+        <v>6.487324446214719</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>32.1305562419502</v>
+        <v>20.57069269758226</v>
       </c>
       <c r="G3">
-        <v>32.79762125717165</v>
+        <v>22.02469663583619</v>
       </c>
       <c r="H3">
-        <v>15.45856872640799</v>
+        <v>9.197462126931711</v>
       </c>
       <c r="I3">
-        <v>24.4521700932462</v>
+        <v>14.91076056887017</v>
       </c>
       <c r="J3">
-        <v>10.46641076717269</v>
+        <v>6.042760060542237</v>
       </c>
       <c r="K3">
-        <v>9.135829970393692</v>
+        <v>10.28368413573167</v>
       </c>
       <c r="L3">
-        <v>11.57677813002858</v>
+        <v>7.271449596009075</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.37686786354418</v>
+        <v>12.77140139585387</v>
       </c>
       <c r="O3">
-        <v>24.03641297067031</v>
+        <v>14.82929609711049</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.06776280606209</v>
+        <v>11.94040502810889</v>
       </c>
       <c r="C4">
-        <v>8.8211198334429</v>
+        <v>6.685013467911515</v>
       </c>
       <c r="D4">
-        <v>9.6085594332074</v>
+        <v>6.359670317587835</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.18161577542555</v>
+        <v>20.51239705735533</v>
       </c>
       <c r="G4">
-        <v>32.86286376587093</v>
+        <v>21.96739555130797</v>
       </c>
       <c r="H4">
-        <v>15.48687989552123</v>
+        <v>9.241981216555176</v>
       </c>
       <c r="I4">
-        <v>24.50688009120664</v>
+        <v>15.00367935706603</v>
       </c>
       <c r="J4">
-        <v>10.48000882624959</v>
+        <v>6.066918607044116</v>
       </c>
       <c r="K4">
-        <v>9.029937207802414</v>
+        <v>9.885836167239692</v>
       </c>
       <c r="L4">
-        <v>11.57480983969698</v>
+        <v>7.172857962550871</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.40925856471038</v>
+        <v>12.87014018137007</v>
       </c>
       <c r="O4">
-        <v>24.085349776001</v>
+        <v>14.87376877461623</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.00839281198697</v>
+        <v>11.71370669541402</v>
       </c>
       <c r="C5">
-        <v>8.818597299771492</v>
+        <v>6.672622015678442</v>
       </c>
       <c r="D5">
-        <v>9.604913526978283</v>
+        <v>6.307503610440335</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.20394201747429</v>
+        <v>20.49209541476244</v>
       </c>
       <c r="G5">
-        <v>32.89140625383465</v>
+        <v>21.94891862214192</v>
       </c>
       <c r="H5">
-        <v>15.49890424601764</v>
+        <v>9.261166755789265</v>
       </c>
       <c r="I5">
-        <v>24.5300970257092</v>
+        <v>15.04359366715485</v>
       </c>
       <c r="J5">
-        <v>10.48576575242839</v>
+        <v>6.077171672788046</v>
       </c>
       <c r="K5">
-        <v>8.986689964028047</v>
+        <v>9.718714511633889</v>
       </c>
       <c r="L5">
-        <v>11.57438124951328</v>
+        <v>7.132950568185274</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.42284582793528</v>
+        <v>12.91105560868392</v>
       </c>
       <c r="O5">
-        <v>24.10628638787159</v>
+        <v>14.89423061762696</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.99853200824877</v>
+        <v>11.67565417934885</v>
       </c>
       <c r="C6">
-        <v>8.81818098658243</v>
+        <v>6.670568254923988</v>
       </c>
       <c r="D6">
-        <v>9.604329755996469</v>
+        <v>6.298834955104065</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.20774098659368</v>
+        <v>20.48893090102345</v>
       </c>
       <c r="G6">
-        <v>32.89626369776209</v>
+        <v>21.94614080747112</v>
       </c>
       <c r="H6">
-        <v>15.50093032759489</v>
+        <v>9.26441479409986</v>
       </c>
       <c r="I6">
-        <v>24.53400789102527</v>
+        <v>15.0503434317719</v>
       </c>
       <c r="J6">
-        <v>10.48673472135047</v>
+        <v>6.07889874128433</v>
       </c>
       <c r="K6">
-        <v>8.979504650439754</v>
+        <v>9.690664394658501</v>
       </c>
       <c r="L6">
-        <v>11.57433268951672</v>
+        <v>7.126341746398531</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.42512543399195</v>
+        <v>12.91789082964233</v>
       </c>
       <c r="O6">
-        <v>24.10982295259306</v>
+        <v>14.89776732400949</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.06696233713975</v>
+        <v>11.93737521228553</v>
       </c>
       <c r="C7">
-        <v>8.821085643096357</v>
+        <v>6.684846098246044</v>
       </c>
       <c r="D7">
-        <v>9.608508815186557</v>
+        <v>6.35896726304407</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.18191072580117</v>
+        <v>20.512109368622</v>
       </c>
       <c r="G7">
-        <v>32.86324078737648</v>
+        <v>21.9671268149099</v>
       </c>
       <c r="H7">
-        <v>15.48704008632662</v>
+        <v>9.242235767314948</v>
       </c>
       <c r="I7">
-        <v>24.5071894684333</v>
+        <v>15.00420943748807</v>
       </c>
       <c r="J7">
-        <v>10.48008559256843</v>
+        <v>6.06705523511961</v>
       </c>
       <c r="K7">
-        <v>9.02935427312711</v>
+        <v>9.883602443879781</v>
       </c>
       <c r="L7">
-        <v>11.57480254506551</v>
+        <v>7.172318598811167</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.40944023580197</v>
+        <v>12.87068922175846</v>
       </c>
       <c r="O7">
-        <v>24.08562810822745</v>
+        <v>14.87403536104878</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.36802864986003</v>
+        <v>13.08528846094063</v>
       </c>
       <c r="C8">
-        <v>8.834268866714007</v>
+        <v>6.748379777004389</v>
       </c>
       <c r="D8">
-        <v>9.630072318331855</v>
+        <v>6.622814252222621</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>32.08126644193985</v>
+        <v>20.64489644689332</v>
       </c>
       <c r="G8">
-        <v>32.73469821090976</v>
+        <v>22.10287902550443</v>
       </c>
       <c r="H8">
-        <v>15.43002244408705</v>
+        <v>9.15359656969329</v>
       </c>
       <c r="I8">
-        <v>24.39694020953759</v>
+        <v>14.81878439182871</v>
       </c>
       <c r="J8">
-        <v>10.45263605507125</v>
+        <v>6.018386428264395</v>
       </c>
       <c r="K8">
-        <v>9.248349944947682</v>
+        <v>10.69098160576125</v>
       </c>
       <c r="L8">
-        <v>11.58015032180174</v>
+        <v>7.377434130285499</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.3436266538899</v>
+        <v>12.66833199415416</v>
       </c>
       <c r="O8">
-        <v>23.98759277922796</v>
+        <v>14.790050774395</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.95016453644861</v>
+        <v>15.13497410489899</v>
       </c>
       <c r="C9">
-        <v>8.861385332062612</v>
+        <v>6.874606843425012</v>
       </c>
       <c r="D9">
-        <v>9.683357493789266</v>
+        <v>7.129794201517167</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.9319090433305</v>
+        <v>21.01900722149737</v>
       </c>
       <c r="G9">
-        <v>32.54464473697322</v>
+        <v>22.53236222289384</v>
       </c>
       <c r="H9">
-        <v>15.33355052841044</v>
+        <v>9.014758557635115</v>
       </c>
       <c r="I9">
-        <v>24.20980279974063</v>
+        <v>14.52469103294196</v>
       </c>
       <c r="J9">
-        <v>10.40557555934163</v>
+        <v>5.936120089314842</v>
       </c>
       <c r="K9">
-        <v>9.670796675446077</v>
+        <v>12.11299491097671</v>
       </c>
       <c r="L9">
-        <v>11.60228654246161</v>
+        <v>7.784394476949839</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.22672421022177</v>
+        <v>12.29221537133456</v>
       </c>
       <c r="O9">
-        <v>23.8267422323383</v>
+        <v>14.70507448691493</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.36857497139917</v>
+        <v>16.48246379110953</v>
       </c>
       <c r="C10">
-        <v>8.882035034597202</v>
+        <v>6.968122609976009</v>
       </c>
       <c r="D10">
-        <v>9.728994814195191</v>
+        <v>7.491962295220557</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.85148676167984</v>
+        <v>21.36627707582182</v>
       </c>
       <c r="G10">
-        <v>32.44304174845323</v>
+        <v>22.95373985585882</v>
       </c>
       <c r="H10">
-        <v>15.27199368476353</v>
+        <v>8.935865189797996</v>
       </c>
       <c r="I10">
-        <v>24.08999890392342</v>
+        <v>14.35527511435107</v>
       </c>
       <c r="J10">
-        <v>10.37509754952846</v>
+        <v>5.883967255391751</v>
       </c>
       <c r="K10">
-        <v>9.973943952575002</v>
+        <v>13.05789460984119</v>
       </c>
       <c r="L10">
-        <v>11.62553611898163</v>
+        <v>8.083484474254325</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.14818158082594</v>
+        <v>12.02790079177645</v>
       </c>
       <c r="O10">
-        <v>23.7277176380599</v>
+        <v>14.69606860884497</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.55606572717175</v>
+        <v>17.06161187913895</v>
       </c>
       <c r="C11">
-        <v>8.891577616757683</v>
+        <v>7.010789513969762</v>
       </c>
       <c r="D11">
-        <v>9.751114484667587</v>
+        <v>7.653768812680828</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.82127017667716</v>
+        <v>21.54049526524596</v>
       </c>
       <c r="G11">
-        <v>32.40511716108526</v>
+        <v>23.16948190169675</v>
       </c>
       <c r="H11">
-        <v>15.24600752211296</v>
+        <v>8.905407567985952</v>
       </c>
       <c r="I11">
-        <v>24.03933119697284</v>
+        <v>14.28933428364808</v>
       </c>
       <c r="J11">
-        <v>10.36211597265929</v>
+        <v>5.862102805187894</v>
       </c>
       <c r="K11">
-        <v>10.10970100030499</v>
+        <v>13.46593846484353</v>
       </c>
       <c r="L11">
-        <v>11.63760243775146</v>
+        <v>8.219025181914345</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.11403150448939</v>
+        <v>11.91013326700712</v>
       </c>
       <c r="O11">
-        <v>23.68682975272323</v>
+        <v>14.70461742976797</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.62658912414226</v>
+        <v>17.27609867011612</v>
       </c>
       <c r="C12">
-        <v>8.895211710362943</v>
+        <v>7.026960835998576</v>
       </c>
       <c r="D12">
-        <v>9.759681376696825</v>
+        <v>7.714565845273319</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.81074360873189</v>
+        <v>21.60883456175927</v>
       </c>
       <c r="G12">
-        <v>32.3919514715435</v>
+        <v>23.25470450209527</v>
       </c>
       <c r="H12">
-        <v>15.236456725384</v>
+        <v>8.894691561903009</v>
       </c>
       <c r="I12">
-        <v>24.02069527008172</v>
+        <v>14.26605274593103</v>
       </c>
       <c r="J12">
-        <v>10.35732670354262</v>
+        <v>5.854096382715427</v>
       </c>
       <c r="K12">
-        <v>10.16075458003227</v>
+        <v>13.61731738193781</v>
       </c>
       <c r="L12">
-        <v>11.64238330276036</v>
+        <v>8.270234976802215</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.10132584155258</v>
+        <v>11.86588227599541</v>
       </c>
       <c r="O12">
-        <v>23.67194480859526</v>
+        <v>14.70975896711756</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.61142279713853</v>
+        <v>17.23011899368178</v>
       </c>
       <c r="C13">
-        <v>8.894428144748831</v>
+        <v>7.023477475565372</v>
       </c>
       <c r="D13">
-        <v>9.757827942113122</v>
+        <v>7.701494032355393</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>31.81296996447889</v>
+        <v>21.59401078821753</v>
       </c>
       <c r="G13">
-        <v>32.39473372878951</v>
+        <v>23.23619255486092</v>
       </c>
       <c r="H13">
-        <v>15.23850078588227</v>
+        <v>8.8969624795833</v>
       </c>
       <c r="I13">
-        <v>24.02468435425112</v>
+        <v>14.27099027073169</v>
       </c>
       <c r="J13">
-        <v>10.35835253541798</v>
+        <v>5.855808465205531</v>
       </c>
       <c r="K13">
-        <v>10.14977575762101</v>
+        <v>13.5848548106946</v>
       </c>
       <c r="L13">
-        <v>11.6413442900662</v>
+        <v>8.259211851585814</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.10405218565642</v>
+        <v>11.87539733874866</v>
       </c>
       <c r="O13">
-        <v>23.675123927703</v>
+        <v>14.70856558717419</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.56187761925795</v>
+        <v>17.07935428062233</v>
       </c>
       <c r="C14">
-        <v>8.89187618962289</v>
+        <v>7.012119673139463</v>
       </c>
       <c r="D14">
-        <v>9.751815495149044</v>
+        <v>7.658780429046138</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.82038579605581</v>
+        <v>21.54606999430299</v>
       </c>
       <c r="G14">
-        <v>32.40401003787161</v>
+        <v>23.17642221823214</v>
       </c>
       <c r="H14">
-        <v>15.24521597031204</v>
+        <v>8.904509353227905</v>
       </c>
       <c r="I14">
-        <v>24.03778696936991</v>
+        <v>14.28738452699533</v>
       </c>
       <c r="J14">
-        <v>10.36171942221799</v>
+        <v>5.86143860335653</v>
       </c>
       <c r="K14">
-        <v>10.11390857161848</v>
+        <v>13.47845540145248</v>
       </c>
       <c r="L14">
-        <v>11.63799153702741</v>
+        <v>8.22324080829009</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.11298167296911</v>
+        <v>11.90648585593814</v>
       </c>
       <c r="O14">
-        <v>23.68559316439503</v>
+        <v>14.70500177154205</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.53146597799224</v>
+        <v>16.98637953512449</v>
       </c>
       <c r="C15">
-        <v>8.890315689716424</v>
+        <v>7.005164442190067</v>
       </c>
       <c r="D15">
-        <v>9.748157381157489</v>
+        <v>7.632553737959859</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.82504746914955</v>
+        <v>21.51701389149715</v>
       </c>
       <c r="G15">
-        <v>32.40984781047356</v>
+        <v>23.14027208026459</v>
       </c>
       <c r="H15">
-        <v>15.24936691869997</v>
+        <v>8.909239627557012</v>
       </c>
       <c r="I15">
-        <v>24.04588442987493</v>
+        <v>14.29764912604083</v>
       </c>
       <c r="J15">
-        <v>10.36379820908291</v>
+        <v>5.864922975484879</v>
       </c>
       <c r="K15">
-        <v>10.09189137401053</v>
+        <v>13.412873950802</v>
       </c>
       <c r="L15">
-        <v>11.63596535619066</v>
+        <v>8.201191132222139</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.11848067766482</v>
+        <v>11.9255730949561</v>
       </c>
       <c r="O15">
-        <v>23.6920838151771</v>
+        <v>14.70306936977046</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.356259007269</v>
+        <v>16.44393780801299</v>
       </c>
       <c r="C16">
-        <v>8.881414325355214</v>
+        <v>6.965336431570127</v>
       </c>
       <c r="D16">
-        <v>9.727576185579851</v>
+        <v>7.481324001726408</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.85358963987031</v>
+        <v>21.3552211484547</v>
       </c>
       <c r="G16">
-        <v>32.44568736971372</v>
+        <v>22.9401306514832</v>
       </c>
       <c r="H16">
-        <v>15.27373248577894</v>
+        <v>8.937968050143715</v>
       </c>
       <c r="I16">
-        <v>24.09338724725739</v>
+        <v>14.35981589674912</v>
       </c>
       <c r="J16">
-        <v>10.37596366005574</v>
+        <v>5.885434056860834</v>
       </c>
       <c r="K16">
-        <v>9.965024728076155</v>
+        <v>13.03078889668983</v>
       </c>
       <c r="L16">
-        <v>11.62477731595874</v>
+        <v>8.074612489344331</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.15044507386783</v>
+        <v>12.03564601748043</v>
       </c>
       <c r="O16">
-        <v>23.73047347727104</v>
+        <v>14.69577172960229</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.24799805282733</v>
+        <v>16.10253122242874</v>
       </c>
       <c r="C17">
-        <v>8.875991140809555</v>
+        <v>6.940932734532354</v>
       </c>
       <c r="D17">
-        <v>9.715295039198423</v>
+        <v>7.387756089732346</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>31.87273046810693</v>
+        <v>21.26015084439069</v>
       </c>
       <c r="G17">
-        <v>32.46980042341168</v>
+        <v>22.8235630435056</v>
       </c>
       <c r="H17">
-        <v>15.28919615818356</v>
+        <v>8.957008613328105</v>
       </c>
       <c r="I17">
-        <v>24.123509957229</v>
+        <v>14.40086490282296</v>
       </c>
       <c r="J17">
-        <v>10.38365264398784</v>
+        <v>5.898497295116686</v>
       </c>
       <c r="K17">
-        <v>9.886612880310723</v>
+        <v>12.79080469245261</v>
       </c>
       <c r="L17">
-        <v>11.6182935973873</v>
+        <v>7.996797184160719</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.17045807743787</v>
+        <v>12.10379770865703</v>
       </c>
       <c r="O17">
-        <v>23.75508975645037</v>
+        <v>14.69459485366699</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.18546502292249</v>
+        <v>15.90297630199051</v>
       </c>
       <c r="C18">
-        <v>8.87288594046041</v>
+        <v>6.926908461472003</v>
       </c>
       <c r="D18">
-        <v>9.708359465882655</v>
+        <v>7.333663770876137</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.88433915542693</v>
+        <v>21.20699640077129</v>
       </c>
       <c r="G18">
-        <v>32.48445025712824</v>
+        <v>22.75877749565361</v>
       </c>
       <c r="H18">
-        <v>15.29828026302157</v>
+        <v>8.96846917172485</v>
       </c>
       <c r="I18">
-        <v>24.14119640826281</v>
+        <v>14.42551697950416</v>
       </c>
       <c r="J18">
-        <v>10.38815828246412</v>
+        <v>5.906185646855909</v>
       </c>
       <c r="K18">
-        <v>9.841313044969784</v>
+        <v>12.65072043259375</v>
       </c>
       <c r="L18">
-        <v>11.61470474436433</v>
+        <v>7.951993563402993</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.18211773643435</v>
+        <v>12.1432299168861</v>
       </c>
       <c r="O18">
-        <v>23.76963982461823</v>
+        <v>14.69510308026985</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.16424911134907</v>
+        <v>15.83486184615739</v>
       </c>
       <c r="C19">
-        <v>8.871837016796649</v>
+        <v>6.922162280389009</v>
       </c>
       <c r="D19">
-        <v>9.706033363307716</v>
+        <v>7.315303574555607</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.88837259575468</v>
+        <v>21.18926052138981</v>
       </c>
       <c r="G19">
-        <v>32.4895444255808</v>
+        <v>22.73722831755192</v>
       </c>
       <c r="H19">
-        <v>15.30138859553515</v>
+        <v>8.972435841776141</v>
       </c>
       <c r="I19">
-        <v>24.14724668628137</v>
+        <v>14.43404004348638</v>
       </c>
       <c r="J19">
-        <v>10.38969810572075</v>
+        <v>5.908818632207889</v>
       </c>
       <c r="K19">
-        <v>9.825942494999246</v>
+        <v>12.60293815880624</v>
       </c>
       <c r="L19">
-        <v>11.61351381421136</v>
+        <v>7.93681721061462</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.18609106450692</v>
+        <v>12.15662133962585</v>
       </c>
       <c r="O19">
-        <v>23.77463344541635</v>
+        <v>14.69547608612552</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.25955044931541</v>
+        <v>16.13920407158282</v>
       </c>
       <c r="C20">
-        <v>8.876566998086144</v>
+        <v>6.943529327227986</v>
       </c>
       <c r="D20">
-        <v>9.716589152100347</v>
+        <v>7.397745362591325</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.87063085816904</v>
+        <v>21.27011290858307</v>
       </c>
       <c r="G20">
-        <v>32.46715273305416</v>
+        <v>22.83573732978606</v>
       </c>
       <c r="H20">
-        <v>15.2875303818387</v>
+        <v>8.954928780858056</v>
       </c>
       <c r="I20">
-        <v>24.12026601704416</v>
+        <v>14.39638671774997</v>
       </c>
       <c r="J20">
-        <v>10.38282553697045</v>
+        <v>5.897088567978311</v>
       </c>
       <c r="K20">
-        <v>9.89498093582214</v>
+        <v>12.8165638129286</v>
       </c>
       <c r="L20">
-        <v>11.61896928704551</v>
+        <v>8.005085865618112</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.16831227466627</v>
+        <v>12.09651878751204</v>
       </c>
       <c r="O20">
-        <v>23.75242879664798</v>
+        <v>14.69459685465058</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.57644364499101</v>
+        <v>17.12376812492801</v>
       </c>
       <c r="C21">
-        <v>8.892625210824846</v>
+        <v>7.015455376650688</v>
       </c>
       <c r="D21">
-        <v>9.753576361382715</v>
+        <v>7.671339741568777</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.81818273264718</v>
+        <v>21.56008692207406</v>
       </c>
       <c r="G21">
-        <v>32.40125289548636</v>
+        <v>23.19388205867914</v>
       </c>
       <c r="H21">
-        <v>15.24323570100144</v>
+        <v>8.902270162760384</v>
       </c>
       <c r="I21">
-        <v>24.03392346540814</v>
+        <v>14.28252257324055</v>
       </c>
       <c r="J21">
-        <v>10.3607270540269</v>
+        <v>5.859777434377425</v>
       </c>
       <c r="K21">
-        <v>10.12445361324591</v>
+        <v>13.50979266752189</v>
       </c>
       <c r="L21">
-        <v>11.63897060056077</v>
+        <v>8.233809858631933</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.11035273323456</v>
+        <v>11.89734512361942</v>
       </c>
       <c r="O21">
-        <v>23.68250185236046</v>
+        <v>14.70599618584524</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.78075346719264</v>
+        <v>17.73913897162553</v>
       </c>
       <c r="C22">
-        <v>8.903239393971782</v>
+        <v>7.062544899952947</v>
       </c>
       <c r="D22">
-        <v>9.778858551757461</v>
+        <v>7.847357508264498</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>31.78924266986216</v>
+        <v>21.7634064321822</v>
       </c>
       <c r="G22">
-        <v>32.36515292329985</v>
+        <v>23.44852332946273</v>
       </c>
       <c r="H22">
-        <v>15.21597441197933</v>
+        <v>8.872638737963637</v>
       </c>
       <c r="I22">
-        <v>23.98070423571667</v>
+        <v>14.21799384495896</v>
       </c>
       <c r="J22">
-        <v>10.34702199264404</v>
+        <v>5.836987606467205</v>
       </c>
       <c r="K22">
-        <v>10.27234049075703</v>
+        <v>13.94456665694955</v>
       </c>
       <c r="L22">
-        <v>11.65327472451973</v>
+        <v>8.38259772809076</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.07379106297008</v>
+        <v>11.76917977232207</v>
       </c>
       <c r="O22">
-        <v>23.64028869247813</v>
+        <v>14.72458552937147</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.67198631319161</v>
+        <v>17.41326132669092</v>
       </c>
       <c r="C23">
-        <v>8.897563794088038</v>
+        <v>7.037406068147506</v>
       </c>
       <c r="D23">
-        <v>9.765265136114259</v>
+        <v>7.75368461342891</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.80420015281114</v>
+        <v>21.65361921975494</v>
       </c>
       <c r="G23">
-        <v>32.38378168619806</v>
+        <v>23.31071529509955</v>
       </c>
       <c r="H23">
-        <v>15.23036995166557</v>
+        <v>8.888003300383343</v>
       </c>
       <c r="I23">
-        <v>24.0088146168984</v>
+        <v>14.25149881832776</v>
       </c>
       <c r="J23">
-        <v>10.35426928668922</v>
+        <v>5.849003033079746</v>
       </c>
       <c r="K23">
-        <v>10.19361595863742</v>
+        <v>13.71419313465142</v>
       </c>
       <c r="L23">
-        <v>11.64552851664824</v>
+        <v>8.303263671855245</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.09318438308006</v>
+        <v>11.83740389195883</v>
       </c>
       <c r="O23">
-        <v>23.66249937326775</v>
+        <v>14.71361651977558</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.25432851645333</v>
+        <v>16.12263448272998</v>
       </c>
       <c r="C24">
-        <v>8.876306613513254</v>
+        <v>6.942355389504863</v>
       </c>
       <c r="D24">
-        <v>9.716003693880539</v>
+        <v>7.393230139262208</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.87157820928303</v>
+        <v>21.26560438106728</v>
       </c>
       <c r="G24">
-        <v>32.46834730290223</v>
+        <v>22.83022639195157</v>
       </c>
       <c r="H24">
-        <v>15.28828287552137</v>
+        <v>8.955867475231431</v>
       </c>
       <c r="I24">
-        <v>24.12173145453325</v>
+        <v>14.39840803371951</v>
       </c>
       <c r="J24">
-        <v>10.38319920682493</v>
+        <v>5.897724899132731</v>
       </c>
       <c r="K24">
-        <v>9.891198419082365</v>
+        <v>12.80492469926262</v>
       </c>
       <c r="L24">
-        <v>11.61866337545106</v>
+        <v>8.00133875682717</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.16928191259206</v>
+        <v>12.09980880551225</v>
       </c>
       <c r="O24">
-        <v>23.75363057736143</v>
+        <v>14.69459226603794</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.79401567073515</v>
+        <v>14.60847934468772</v>
       </c>
       <c r="C25">
-        <v>8.853918704281485</v>
+        <v>6.840306936718448</v>
       </c>
       <c r="D25">
-        <v>9.667786334014993</v>
+        <v>6.994190177903127</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.96716925100297</v>
+        <v>20.90527961555145</v>
       </c>
       <c r="G25">
-        <v>32.5893953717995</v>
+        <v>22.39799356142728</v>
       </c>
       <c r="H25">
-        <v>15.35800968955083</v>
+        <v>9.048394160687042</v>
       </c>
       <c r="I25">
-        <v>24.25732044830302</v>
+        <v>14.59638208439771</v>
       </c>
       <c r="J25">
-        <v>10.41758508272529</v>
+        <v>5.95693953284515</v>
       </c>
       <c r="K25">
-        <v>9.557576351679632</v>
+        <v>11.74576539030097</v>
       </c>
       <c r="L25">
-        <v>11.5950623317521</v>
+        <v>7.674090356348905</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.25705472269057</v>
+        <v>12.39181003610372</v>
       </c>
       <c r="O25">
-        <v>23.86689400385482</v>
+        <v>14.71903243126283</v>
       </c>
     </row>
   </sheetData>
